--- a/Simulation/Simulation_multi_cube_experiment/Cleaned_data.xlsx
+++ b/Simulation/Simulation_multi_cube_experiment/Cleaned_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91354\Documents\Projects\Kinematic_Param_Calibration\Simulation\Simulation_multi_cube_experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91354\Documents\Projects\backup\Kinematic_Param_Calibration\Simulation\Simulation_multi_cube_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637C87AD-674D-4945-852A-B0A23E695EB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA3566C-CE98-41FD-A686-BA204F533E3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -415,7 +415,7 @@
   <dimension ref="A1:G608"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D283" sqref="D283"/>
+      <selection activeCell="F196" sqref="F196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1878,7 +1878,7 @@
         <v>9.1351903779164578E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1">
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>100</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>0.10279557363222652</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1">
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>50</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>0.11116132014857934</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1">
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>100</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>0.13236515326537288</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1">
+    <row r="108" spans="1:7">
       <c r="A108">
         <v>50</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>0.1344482765588427</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1">
+    <row r="110" spans="1:7">
       <c r="A110">
         <v>100</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>0.14186251199135894</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1">
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>50</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>0.14235074860997007</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1">
+    <row r="117" spans="1:7">
       <c r="A117">
         <v>50</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>0.15453479294444947</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1">
+    <row r="132" spans="1:7">
       <c r="A132">
         <v>100</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>0.16683372729551457</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1">
+    <row r="139" spans="1:7">
       <c r="A139">
         <v>50</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>0.16999519335567667</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1">
+    <row r="144" spans="1:7">
       <c r="A144">
         <v>50</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>0.17507352827247505</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1">
+    <row r="151" spans="1:7">
       <c r="A151">
         <v>100</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>0.17770059349071918</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1">
+    <row r="156" spans="1:7">
       <c r="A156">
         <v>50</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>0.1796210221782174</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1">
+    <row r="157" spans="1:7">
       <c r="A157">
         <v>100</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>0.18176663433105228</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1">
+    <row r="160" spans="1:7">
       <c r="A160">
         <v>50</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>0.19077936451371963</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1">
+    <row r="166" spans="1:7">
       <c r="A166">
         <v>50</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>0.19381323345906182</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1">
+    <row r="170" spans="1:7">
       <c r="A170">
         <v>100</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>0.19822126999690975</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1">
+    <row r="172" spans="1:7">
       <c r="A172">
         <v>100</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>0.19874355808103364</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1">
+    <row r="173" spans="1:7">
       <c r="A173">
         <v>100</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>0.20396825989889852</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1">
+    <row r="176" spans="1:7">
       <c r="A176">
         <v>50</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>0.20402341644288025</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1">
+    <row r="177" spans="1:7">
       <c r="A177">
         <v>50</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>0.2144749105069767</v>
       </c>
     </row>
-    <row r="185" spans="1:7" hidden="1">
+    <row r="185" spans="1:7">
       <c r="A185">
         <v>100</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>0.21633897405824004</v>
       </c>
     </row>
-    <row r="187" spans="1:7" hidden="1">
+    <row r="187" spans="1:7">
       <c r="A187">
         <v>50</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>0.2182431952251731</v>
       </c>
     </row>
-    <row r="189" spans="1:7" hidden="1">
+    <row r="189" spans="1:7">
       <c r="A189">
         <v>50</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>0.21880286854119743</v>
       </c>
     </row>
-    <row r="190" spans="1:7" hidden="1">
+    <row r="190" spans="1:7">
       <c r="A190">
         <v>100</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>0.22998100355972484</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1">
+    <row r="195" spans="1:7">
       <c r="A195">
         <v>100</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>0.24261163437706257</v>
       </c>
     </row>
-    <row r="206" spans="1:7" hidden="1">
+    <row r="206" spans="1:7">
       <c r="A206">
         <v>100</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>0.25056693490125437</v>
       </c>
     </row>
-    <row r="213" spans="1:7" hidden="1">
+    <row r="213" spans="1:7">
       <c r="A213">
         <v>100</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>0.25690981737719665</v>
       </c>
     </row>
-    <row r="218" spans="1:7" hidden="1">
+    <row r="218" spans="1:7">
       <c r="A218">
         <v>50</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>0.26022252418176289</v>
       </c>
     </row>
-    <row r="223" spans="1:7" hidden="1">
+    <row r="223" spans="1:7">
       <c r="A223">
         <v>50</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>0.26046230354096211</v>
       </c>
     </row>
-    <row r="224" spans="1:7" hidden="1">
+    <row r="224" spans="1:7">
       <c r="A224">
         <v>50</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>0.26191589212014799</v>
       </c>
     </row>
-    <row r="225" spans="1:7" hidden="1">
+    <row r="225" spans="1:7">
       <c r="A225">
         <v>100</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>0.2642290499400885</v>
       </c>
     </row>
-    <row r="228" spans="1:7" hidden="1">
+    <row r="228" spans="1:7">
       <c r="A228">
         <v>50</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>0.27040776544046818</v>
       </c>
     </row>
-    <row r="232" spans="1:7" hidden="1">
+    <row r="232" spans="1:7">
       <c r="A232">
         <v>100</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>0.27545324567234286</v>
       </c>
     </row>
-    <row r="234" spans="1:7" hidden="1">
+    <row r="234" spans="1:7">
       <c r="A234">
         <v>100</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>0.29118163941364633</v>
       </c>
     </row>
-    <row r="239" spans="1:7" hidden="1">
+    <row r="239" spans="1:7">
       <c r="A239">
         <v>50</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>0.29180364089183103</v>
       </c>
     </row>
-    <row r="240" spans="1:7" hidden="1">
+    <row r="240" spans="1:7">
       <c r="A240">
         <v>100</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>0.29271335899722073</v>
       </c>
     </row>
-    <row r="241" spans="1:7" hidden="1">
+    <row r="241" spans="1:7">
       <c r="A241">
         <v>100</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>0.31963671059083348</v>
       </c>
     </row>
-    <row r="247" spans="1:7" hidden="1">
+    <row r="247" spans="1:7">
       <c r="A247">
         <v>100</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>0.32721494444838706</v>
       </c>
     </row>
-    <row r="250" spans="1:7" hidden="1">
+    <row r="250" spans="1:7">
       <c r="A250">
         <v>50</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>0.33142644628085272</v>
       </c>
     </row>
-    <row r="252" spans="1:7" hidden="1">
+    <row r="252" spans="1:7">
       <c r="A252">
         <v>100</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>0.33220049608528568</v>
       </c>
     </row>
-    <row r="253" spans="1:7" hidden="1">
+    <row r="253" spans="1:7">
       <c r="A253">
         <v>100</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>0.33305601333602713</v>
       </c>
     </row>
-    <row r="255" spans="1:7" hidden="1">
+    <row r="255" spans="1:7">
       <c r="A255">
         <v>50</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>0.34772617832502634</v>
       </c>
     </row>
-    <row r="259" spans="1:7" hidden="1">
+    <row r="259" spans="1:7">
       <c r="A259">
         <v>50</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>0.34834127841315565</v>
       </c>
     </row>
-    <row r="260" spans="1:7" hidden="1">
+    <row r="260" spans="1:7">
       <c r="A260">
         <v>100</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>0.35224378971371856</v>
       </c>
     </row>
-    <row r="263" spans="1:7" hidden="1">
+    <row r="263" spans="1:7">
       <c r="A263">
         <v>100</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>0.35453325025022464</v>
       </c>
     </row>
-    <row r="264" spans="1:7" hidden="1">
+    <row r="264" spans="1:7">
       <c r="A264">
         <v>50</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>0.35526854241908928</v>
       </c>
     </row>
-    <row r="266" spans="1:7" hidden="1">
+    <row r="266" spans="1:7">
       <c r="A266">
         <v>50</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>0.363441467158579</v>
       </c>
     </row>
-    <row r="267" spans="1:7" hidden="1">
+    <row r="267" spans="1:7">
       <c r="A267">
         <v>100</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>0.37054413776772288</v>
       </c>
     </row>
-    <row r="271" spans="1:7" hidden="1">
+    <row r="271" spans="1:7">
       <c r="A271">
         <v>50</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>0.37911851454928608</v>
       </c>
     </row>
-    <row r="276" spans="1:7" hidden="1">
+    <row r="276" spans="1:7">
       <c r="A276">
         <v>100</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>0.38354656220791805</v>
       </c>
     </row>
-    <row r="277" spans="1:7" hidden="1">
+    <row r="277" spans="1:7">
       <c r="A277">
         <v>100</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>0.38416801885685364</v>
       </c>
     </row>
-    <row r="280" spans="1:7" hidden="1">
+    <row r="280" spans="1:7">
       <c r="A280">
         <v>50</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>0.3854567991175995</v>
       </c>
     </row>
-    <row r="281" spans="1:7" hidden="1">
+    <row r="281" spans="1:7">
       <c r="A281">
         <v>100</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>0.38584825349973623</v>
       </c>
     </row>
-    <row r="282" spans="1:7" hidden="1">
+    <row r="282" spans="1:7">
       <c r="A282">
         <v>50</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>0.39501501900446628</v>
       </c>
     </row>
-    <row r="285" spans="1:7" hidden="1">
+    <row r="285" spans="1:7">
       <c r="A285">
         <v>50</v>
       </c>
@@ -7030,7 +7030,7 @@
         <v>0.40330452794057914</v>
       </c>
     </row>
-    <row r="288" spans="1:7" hidden="1">
+    <row r="288" spans="1:7">
       <c r="A288">
         <v>100</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>0.40357308949229659</v>
       </c>
     </row>
-    <row r="289" spans="1:7" hidden="1">
+    <row r="289" spans="1:7">
       <c r="A289">
         <v>100</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>0.42912183764492756</v>
       </c>
     </row>
-    <row r="294" spans="1:7" hidden="1">
+    <row r="294" spans="1:7">
       <c r="A294">
         <v>100</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>0.43230093736796654</v>
       </c>
     </row>
-    <row r="295" spans="1:7" hidden="1">
+    <row r="295" spans="1:7">
       <c r="A295">
         <v>50</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>0.43242360756439674</v>
       </c>
     </row>
-    <row r="296" spans="1:7" hidden="1">
+    <row r="296" spans="1:7">
       <c r="A296">
         <v>50</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>0.45688587590197099</v>
       </c>
     </row>
-    <row r="301" spans="1:7" hidden="1">
+    <row r="301" spans="1:7">
       <c r="A301">
         <v>50</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>0.46982087131194189</v>
       </c>
     </row>
-    <row r="306" spans="1:7" hidden="1">
+    <row r="306" spans="1:7">
       <c r="A306">
         <v>100</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>0.46996397330115181</v>
       </c>
     </row>
-    <row r="307" spans="1:7" hidden="1">
+    <row r="307" spans="1:7">
       <c r="A307">
         <v>50</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>0.47865175576460633</v>
       </c>
     </row>
-    <row r="309" spans="1:7" hidden="1">
+    <row r="309" spans="1:7">
       <c r="A309">
         <v>50</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>0.4801313790117695</v>
       </c>
     </row>
-    <row r="310" spans="1:7" hidden="1">
+    <row r="310" spans="1:7">
       <c r="A310">
         <v>100</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>0.48724013278447503</v>
       </c>
     </row>
-    <row r="313" spans="1:7" hidden="1">
+    <row r="313" spans="1:7">
       <c r="A313">
         <v>50</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>0.4889882243803611</v>
       </c>
     </row>
-    <row r="315" spans="1:7" hidden="1">
+    <row r="315" spans="1:7">
       <c r="A315">
         <v>50</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>0.48906826476287596</v>
       </c>
     </row>
-    <row r="316" spans="1:7" hidden="1">
+    <row r="316" spans="1:7">
       <c r="A316">
         <v>100</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>0.49023140427824285</v>
       </c>
     </row>
-    <row r="317" spans="1:7" hidden="1">
+    <row r="317" spans="1:7">
       <c r="A317">
         <v>50</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>0.49666645863364051</v>
       </c>
     </row>
-    <row r="318" spans="1:7" hidden="1">
+    <row r="318" spans="1:7">
       <c r="A318">
         <v>100</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>0.49672601588998122</v>
       </c>
     </row>
-    <row r="319" spans="1:7" hidden="1">
+    <row r="319" spans="1:7">
       <c r="A319">
         <v>50</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>0.50159058904411102</v>
       </c>
     </row>
-    <row r="321" spans="1:7" hidden="1">
+    <row r="321" spans="1:7">
       <c r="A321">
         <v>50</v>
       </c>
@@ -7835,7 +7835,7 @@
         <v>0.51148730611035187</v>
       </c>
     </row>
-    <row r="323" spans="1:7" hidden="1">
+    <row r="323" spans="1:7">
       <c r="A323">
         <v>100</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>0.52578992704569238</v>
       </c>
     </row>
-    <row r="325" spans="1:7" hidden="1">
+    <row r="325" spans="1:7">
       <c r="A325">
         <v>50</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>0.52954643075383556</v>
       </c>
     </row>
-    <row r="326" spans="1:7" hidden="1">
+    <row r="326" spans="1:7">
       <c r="A326">
         <v>50</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>0.52967112660722215</v>
       </c>
     </row>
-    <row r="327" spans="1:7" hidden="1">
+    <row r="327" spans="1:7">
       <c r="A327">
         <v>100</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>0.54457757638101234</v>
       </c>
     </row>
-    <row r="330" spans="1:7" hidden="1">
+    <row r="330" spans="1:7">
       <c r="A330">
         <v>100</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>0.59513824964092155</v>
       </c>
     </row>
-    <row r="337" spans="1:7" hidden="1">
+    <row r="337" spans="1:7">
       <c r="A337">
         <v>100</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>0.64558247647299905</v>
       </c>
     </row>
-    <row r="340" spans="1:7" hidden="1">
+    <row r="340" spans="1:7">
       <c r="A340">
         <v>50</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>0.65154671616123561</v>
       </c>
     </row>
-    <row r="341" spans="1:7" hidden="1">
+    <row r="341" spans="1:7">
       <c r="A341">
         <v>100</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>0.65604838670345711</v>
       </c>
     </row>
-    <row r="342" spans="1:7" hidden="1">
+    <row r="342" spans="1:7">
       <c r="A342">
         <v>50</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>0.65727390669092023</v>
       </c>
     </row>
-    <row r="343" spans="1:7" hidden="1">
+    <row r="343" spans="1:7">
       <c r="A343">
         <v>100</v>
       </c>
@@ -8318,7 +8318,7 @@
         <v>0.65756388609448391</v>
       </c>
     </row>
-    <row r="344" spans="1:7" hidden="1">
+    <row r="344" spans="1:7">
       <c r="A344">
         <v>50</v>
       </c>
@@ -8364,7 +8364,7 @@
         <v>0.67062900032195183</v>
       </c>
     </row>
-    <row r="346" spans="1:7" hidden="1">
+    <row r="346" spans="1:7">
       <c r="A346">
         <v>100</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>0.68979971109500948</v>
       </c>
     </row>
-    <row r="348" spans="1:7" hidden="1">
+    <row r="348" spans="1:7">
       <c r="A348">
         <v>100</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>0.69853336889849849</v>
       </c>
     </row>
-    <row r="350" spans="1:7" hidden="1">
+    <row r="350" spans="1:7">
       <c r="A350">
         <v>50</v>
       </c>
@@ -8479,7 +8479,7 @@
         <v>0.71315320222103407</v>
       </c>
     </row>
-    <row r="351" spans="1:7" hidden="1">
+    <row r="351" spans="1:7">
       <c r="A351">
         <v>100</v>
       </c>
@@ -8502,7 +8502,7 @@
         <v>0.72162734869774658</v>
       </c>
     </row>
-    <row r="352" spans="1:7" hidden="1">
+    <row r="352" spans="1:7">
       <c r="A352">
         <v>100</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>0.73029914910706561</v>
       </c>
     </row>
-    <row r="353" spans="1:7" hidden="1">
+    <row r="353" spans="1:7">
       <c r="A353">
         <v>100</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>0.73504367069771726</v>
       </c>
     </row>
-    <row r="354" spans="1:7" hidden="1">
+    <row r="354" spans="1:7">
       <c r="A354">
         <v>50</v>
       </c>
@@ -8594,7 +8594,7 @@
         <v>0.75006578625669484</v>
       </c>
     </row>
-    <row r="356" spans="1:7" hidden="1">
+    <row r="356" spans="1:7">
       <c r="A356">
         <v>100</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>0.78223463058491849</v>
       </c>
     </row>
-    <row r="361" spans="1:7" hidden="1">
+    <row r="361" spans="1:7">
       <c r="A361">
         <v>50</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>0.82152578641582408</v>
       </c>
     </row>
-    <row r="363" spans="1:7" hidden="1">
+    <row r="363" spans="1:7">
       <c r="A363">
         <v>100</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>0.84007858069191554</v>
       </c>
     </row>
-    <row r="365" spans="1:7" hidden="1">
+    <row r="365" spans="1:7">
       <c r="A365">
         <v>100</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>0.84876597805461051</v>
       </c>
     </row>
-    <row r="366" spans="1:7" hidden="1">
+    <row r="366" spans="1:7">
       <c r="A366">
         <v>100</v>
       </c>
@@ -8870,7 +8870,7 @@
         <v>0.90692834753123475</v>
       </c>
     </row>
-    <row r="368" spans="1:7" hidden="1">
+    <row r="368" spans="1:7">
       <c r="A368">
         <v>50</v>
       </c>
@@ -8916,7 +8916,7 @@
         <v>0.91147823582024234</v>
       </c>
     </row>
-    <row r="370" spans="1:7" hidden="1">
+    <row r="370" spans="1:7">
       <c r="A370">
         <v>50</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>0.92076356882719423</v>
       </c>
     </row>
-    <row r="371" spans="1:7" hidden="1">
+    <row r="371" spans="1:7">
       <c r="A371">
         <v>100</v>
       </c>
@@ -8962,7 +8962,7 @@
         <v>0.92530137316592986</v>
       </c>
     </row>
-    <row r="372" spans="1:7" hidden="1">
+    <row r="372" spans="1:7">
       <c r="A372">
         <v>100</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>0.99286809738131421</v>
       </c>
     </row>
-    <row r="373" spans="1:7" hidden="1">
+    <row r="373" spans="1:7">
       <c r="A373">
         <v>50</v>
       </c>
@@ -9031,7 +9031,7 @@
         <v>1.0266306938633931</v>
       </c>
     </row>
-    <row r="375" spans="1:7" hidden="1">
+    <row r="375" spans="1:7">
       <c r="A375">
         <v>100</v>
       </c>
@@ -9054,7 +9054,7 @@
         <v>1.0403973635224193</v>
       </c>
     </row>
-    <row r="376" spans="1:7" hidden="1">
+    <row r="376" spans="1:7">
       <c r="A376">
         <v>100</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>1.1021147907029012</v>
       </c>
     </row>
-    <row r="377" spans="1:7" hidden="1">
+    <row r="377" spans="1:7">
       <c r="A377">
         <v>50</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>1.134851877973541</v>
       </c>
     </row>
-    <row r="382" spans="1:7" hidden="1">
+    <row r="382" spans="1:7">
       <c r="A382">
         <v>50</v>
       </c>
@@ -9261,7 +9261,7 @@
         <v>1.2531609254504781</v>
       </c>
     </row>
-    <row r="385" spans="1:7" hidden="1">
+    <row r="385" spans="1:7">
       <c r="A385">
         <v>100</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>1.3227845511593461</v>
       </c>
     </row>
-    <row r="387" spans="1:7" hidden="1">
+    <row r="387" spans="1:7">
       <c r="A387">
         <v>100</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>1.4673638483781644</v>
       </c>
     </row>
-    <row r="390" spans="1:7" hidden="1">
+    <row r="390" spans="1:7">
       <c r="A390">
         <v>100</v>
       </c>
@@ -9445,7 +9445,7 @@
         <v>1.6444476550491516</v>
       </c>
     </row>
-    <row r="393" spans="1:7" hidden="1">
+    <row r="393" spans="1:7">
       <c r="A393">
         <v>100</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>1.6754397214016703</v>
       </c>
     </row>
-    <row r="394" spans="1:7" hidden="1">
+    <row r="394" spans="1:7">
       <c r="A394">
         <v>100</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>51.278002021343191</v>
       </c>
     </row>
-    <row r="400" spans="1:7" hidden="1">
+    <row r="400" spans="1:7">
       <c r="A400">
         <v>50</v>
       </c>
@@ -9767,7 +9767,7 @@
         <v>57.380275376104656</v>
       </c>
     </row>
-    <row r="407" spans="1:7" hidden="1">
+    <row r="407" spans="1:7">
       <c r="A407">
         <v>50</v>
       </c>
@@ -9974,7 +9974,7 @@
         <v>61.86481954422932</v>
       </c>
     </row>
-    <row r="416" spans="1:7" hidden="1">
+    <row r="416" spans="1:7">
       <c r="A416">
         <v>50</v>
       </c>
@@ -10204,7 +10204,7 @@
         <v>92.384594484561831</v>
       </c>
     </row>
-    <row r="426" spans="1:7" hidden="1">
+    <row r="426" spans="1:7">
       <c r="A426">
         <v>50</v>
       </c>
@@ -10250,7 +10250,7 @@
         <v>111.94245771222103</v>
       </c>
     </row>
-    <row r="428" spans="1:7" hidden="1">
+    <row r="428" spans="1:7">
       <c r="A428">
         <v>50</v>
       </c>
@@ -10411,7 +10411,7 @@
         <v>162.33027341615613</v>
       </c>
     </row>
-    <row r="435" spans="1:7" hidden="1">
+    <row r="435" spans="1:7">
       <c r="A435">
         <v>50</v>
       </c>
@@ -10825,7 +10825,7 @@
         <v>265.24002652184862</v>
       </c>
     </row>
-    <row r="453" spans="1:7" hidden="1">
+    <row r="453" spans="1:7">
       <c r="A453">
         <v>50</v>
       </c>
@@ -10894,7 +10894,7 @@
         <v>331.51644458401375</v>
       </c>
     </row>
-    <row r="456" spans="1:7" hidden="1">
+    <row r="456" spans="1:7">
       <c r="A456">
         <v>50</v>
       </c>
@@ -11032,7 +11032,7 @@
         <v>396.31906869269164</v>
       </c>
     </row>
-    <row r="462" spans="1:7" hidden="1">
+    <row r="462" spans="1:7">
       <c r="A462">
         <v>100</v>
       </c>
@@ -11170,7 +11170,7 @@
         <v>499.40554741887883</v>
       </c>
     </row>
-    <row r="468" spans="1:7" hidden="1">
+    <row r="468" spans="1:7">
       <c r="A468">
         <v>50</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>979.8384074722477</v>
       </c>
     </row>
-    <row r="478" spans="1:7" hidden="1">
+    <row r="478" spans="1:7">
       <c r="A478">
         <v>50</v>
       </c>
@@ -14419,11 +14419,6 @@
       <filters>
         <filter val="50"/>
         <filter val="100"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="0"/>
       </filters>
     </filterColumn>
     <filterColumn colId="5">
